--- a/data/trans_orig/MCS12_SP_R3-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/MCS12_SP_R3-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{52FFC8EF-B7E6-41DD-B386-9E3CDE036710}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F1D456C2-9A39-4102-8940-42D5F8E231CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FDD286F0-11F7-4D96-B4FC-FF1348EE9BD5}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{F44E2C26-A13E-4B35-B22E-EFFDF5BE219B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,9 +39,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="637">
-  <si>
-    <t>Población en el primer cuartil de la puntuación del componente de salud mental (SF12) en 2007 (Tasa respuesta: 100,0%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="650">
+  <si>
+    <t>Población en el primer cuartil (48.3888) de la puntuación del componente de salud mental (SF12) en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -584,10 +584,61 @@
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población en el primer cuartil de la puntuación del componente de salud mental (SF12) en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>—%</t>
+    <t>Población en el primer cuartil (48.3888) de la puntuación del componente de salud mental (SF12) en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>32,67%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>38,53%</t>
+  </si>
+  <si>
+    <t>53,08%</t>
+  </si>
+  <si>
+    <t>46,52%</t>
+  </si>
+  <si>
+    <t>59,0%</t>
+  </si>
+  <si>
+    <t>42,75%</t>
+  </si>
+  <si>
+    <t>38,88%</t>
+  </si>
+  <si>
+    <t>47,26%</t>
+  </si>
+  <si>
+    <t>67,33%</t>
+  </si>
+  <si>
+    <t>61,47%</t>
+  </si>
+  <si>
+    <t>72,4%</t>
+  </si>
+  <si>
+    <t>46,92%</t>
+  </si>
+  <si>
+    <t>41,0%</t>
+  </si>
+  <si>
+    <t>53,48%</t>
+  </si>
+  <si>
+    <t>57,25%</t>
+  </si>
+  <si>
+    <t>52,74%</t>
+  </si>
+  <si>
+    <t>61,12%</t>
   </si>
   <si>
     <t>15,08%</t>
@@ -698,58 +749,58 @@
     <t>83,29%</t>
   </si>
   <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>46,84%</t>
-  </si>
-  <si>
-    <t>42,96%</t>
-  </si>
-  <si>
-    <t>50,84%</t>
-  </si>
-  <si>
-    <t>36,91%</t>
-  </si>
-  <si>
-    <t>34,04%</t>
-  </si>
-  <si>
-    <t>39,52%</t>
-  </si>
-  <si>
-    <t>73,13%</t>
-  </si>
-  <si>
-    <t>69,92%</t>
-  </si>
-  <si>
-    <t>76,39%</t>
-  </si>
-  <si>
-    <t>53,16%</t>
-  </si>
-  <si>
-    <t>49,16%</t>
-  </si>
-  <si>
-    <t>57,04%</t>
-  </si>
-  <si>
-    <t>63,09%</t>
-  </si>
-  <si>
-    <t>60,48%</t>
-  </si>
-  <si>
-    <t>65,96%</t>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>42,24%</t>
+  </si>
+  <si>
+    <t>37,17%</t>
+  </si>
+  <si>
+    <t>47,57%</t>
+  </si>
+  <si>
+    <t>32,46%</t>
+  </si>
+  <si>
+    <t>29,08%</t>
+  </si>
+  <si>
+    <t>36,0%</t>
+  </si>
+  <si>
+    <t>77,71%</t>
+  </si>
+  <si>
+    <t>73,25%</t>
+  </si>
+  <si>
+    <t>82,26%</t>
+  </si>
+  <si>
+    <t>57,76%</t>
+  </si>
+  <si>
+    <t>52,43%</t>
+  </si>
+  <si>
+    <t>62,83%</t>
+  </si>
+  <si>
+    <t>67,54%</t>
+  </si>
+  <si>
+    <t>64,0%</t>
+  </si>
+  <si>
+    <t>70,92%</t>
   </si>
   <si>
     <t>13,05%</t>
@@ -1010,7 +1061,7 @@
     <t>73,48%</t>
   </si>
   <si>
-    <t>Población en el primer cuartil de la puntuación del componente de salud mental (SF12) en 2016 (Tasa respuesta: 100,0%)</t>
+    <t>Población en el primer cuartil (48.3888) de la puntuación del componente de salud mental (SF12) en 2016 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>31,25%</t>
@@ -1475,481 +1526,469 @@
     <t>78,07%</t>
   </si>
   <si>
-    <t>Población en el primer cuartil de la puntuación del componente de salud mental (SF12) en 2023 (Tasa respuesta: 99,38%)</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>92,95%</t>
-  </si>
-  <si>
-    <t>89,78%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
-  </si>
-  <si>
-    <t>90,0%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>92,8%</t>
-  </si>
-  <si>
-    <t>90,77%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>84,03%</t>
-  </si>
-  <si>
-    <t>80,03%</t>
-  </si>
-  <si>
-    <t>87,58%</t>
-  </si>
-  <si>
-    <t>75,73%</t>
-  </si>
-  <si>
-    <t>72,18%</t>
-  </si>
-  <si>
-    <t>78,67%</t>
-  </si>
-  <si>
-    <t>79,75%</t>
-  </si>
-  <si>
-    <t>77,09%</t>
-  </si>
-  <si>
-    <t>82,46%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>86,76%</t>
-  </si>
-  <si>
-    <t>82,82%</t>
-  </si>
-  <si>
-    <t>89,97%</t>
-  </si>
-  <si>
-    <t>79,99%</t>
-  </si>
-  <si>
-    <t>76,18%</t>
-  </si>
-  <si>
-    <t>83,41%</t>
-  </si>
-  <si>
-    <t>83,14%</t>
-  </si>
-  <si>
-    <t>80,58%</t>
-  </si>
-  <si>
-    <t>85,35%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>87,35%</t>
-  </si>
-  <si>
-    <t>83,06%</t>
-  </si>
-  <si>
-    <t>90,8%</t>
-  </si>
-  <si>
-    <t>79,39%</t>
-  </si>
-  <si>
-    <t>74,73%</t>
-  </si>
-  <si>
-    <t>83,49%</t>
-  </si>
-  <si>
-    <t>82,79%</t>
-  </si>
-  <si>
-    <t>79,52%</t>
-  </si>
-  <si>
-    <t>85,5%</t>
-  </si>
-  <si>
-    <t>48,24%</t>
-  </si>
-  <si>
-    <t>41,92%</t>
-  </si>
-  <si>
-    <t>54,86%</t>
-  </si>
-  <si>
-    <t>59,47%</t>
-  </si>
-  <si>
-    <t>54,46%</t>
-  </si>
-  <si>
-    <t>64,37%</t>
-  </si>
-  <si>
-    <t>54,3%</t>
-  </si>
-  <si>
-    <t>50,01%</t>
-  </si>
-  <si>
-    <t>58,26%</t>
-  </si>
-  <si>
-    <t>51,76%</t>
-  </si>
-  <si>
-    <t>45,14%</t>
-  </si>
-  <si>
-    <t>58,08%</t>
-  </si>
-  <si>
-    <t>40,53%</t>
-  </si>
-  <si>
-    <t>35,63%</t>
-  </si>
-  <si>
-    <t>45,54%</t>
-  </si>
-  <si>
-    <t>45,7%</t>
-  </si>
-  <si>
-    <t>41,74%</t>
-  </si>
-  <si>
-    <t>49,99%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>83,65%</t>
-  </si>
-  <si>
-    <t>79,49%</t>
-  </si>
-  <si>
-    <t>87,09%</t>
-  </si>
-  <si>
-    <t>80,05%</t>
-  </si>
-  <si>
-    <t>76,07%</t>
-  </si>
-  <si>
-    <t>83,78%</t>
-  </si>
-  <si>
-    <t>81,85%</t>
-  </si>
-  <si>
-    <t>78,93%</t>
-  </si>
-  <si>
-    <t>84,47%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>30,74%</t>
-  </si>
-  <si>
-    <t>45,5%</t>
-  </si>
-  <si>
-    <t>35,46%</t>
-  </si>
-  <si>
-    <t>63,33%</t>
+    <t>Población en el primer cuartil (48.3888) de la puntuación del componente de salud mental (SF12) en 2023 (Tasa respuesta: 99,38%)</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
+  </si>
+  <si>
+    <t>90,23%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
+  </si>
+  <si>
+    <t>89,98%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>91,05%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>84,39%</t>
+  </si>
+  <si>
+    <t>80,26%</t>
+  </si>
+  <si>
+    <t>75,82%</t>
+  </si>
+  <si>
+    <t>72,32%</t>
+  </si>
+  <si>
+    <t>78,77%</t>
+  </si>
+  <si>
+    <t>80,12%</t>
+  </si>
+  <si>
+    <t>77,57%</t>
+  </si>
+  <si>
+    <t>82,89%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>86,94%</t>
+  </si>
+  <si>
+    <t>82,91%</t>
+  </si>
+  <si>
+    <t>90,08%</t>
+  </si>
+  <si>
+    <t>80,2%</t>
+  </si>
+  <si>
+    <t>76,41%</t>
+  </si>
+  <si>
+    <t>83,52%</t>
+  </si>
+  <si>
+    <t>80,92%</t>
+  </si>
+  <si>
+    <t>85,61%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>87,57%</t>
+  </si>
+  <si>
+    <t>83,36%</t>
+  </si>
+  <si>
+    <t>91,03%</t>
+  </si>
+  <si>
+    <t>82,77%</t>
+  </si>
+  <si>
+    <t>77,48%</t>
+  </si>
+  <si>
+    <t>89,72%</t>
+  </si>
+  <si>
+    <t>84,66%</t>
+  </si>
+  <si>
+    <t>81,19%</t>
+  </si>
+  <si>
+    <t>89,36%</t>
+  </si>
+  <si>
+    <t>48,43%</t>
+  </si>
+  <si>
+    <t>41,85%</t>
+  </si>
+  <si>
+    <t>54,87%</t>
+  </si>
+  <si>
+    <t>59,99%</t>
+  </si>
+  <si>
+    <t>55,04%</t>
+  </si>
+  <si>
+    <t>64,78%</t>
+  </si>
+  <si>
+    <t>54,64%</t>
+  </si>
+  <si>
+    <t>50,37%</t>
+  </si>
+  <si>
+    <t>58,48%</t>
+  </si>
+  <si>
+    <t>51,57%</t>
+  </si>
+  <si>
+    <t>45,13%</t>
+  </si>
+  <si>
+    <t>58,15%</t>
+  </si>
+  <si>
+    <t>40,01%</t>
+  </si>
+  <si>
+    <t>35,22%</t>
+  </si>
+  <si>
+    <t>44,96%</t>
+  </si>
+  <si>
+    <t>45,36%</t>
+  </si>
+  <si>
+    <t>41,52%</t>
+  </si>
+  <si>
+    <t>49,63%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>83,88%</t>
+  </si>
+  <si>
+    <t>79,72%</t>
+  </si>
+  <si>
+    <t>87,24%</t>
+  </si>
+  <si>
+    <t>80,08%</t>
+  </si>
+  <si>
+    <t>76,11%</t>
+  </si>
+  <si>
+    <t>83,81%</t>
+  </si>
+  <si>
+    <t>82,02%</t>
+  </si>
+  <si>
+    <t>79,17%</t>
+  </si>
+  <si>
+    <t>27,04%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>31,67%</t>
+  </si>
+  <si>
+    <t>52,01%</t>
+  </si>
+  <si>
+    <t>35,43%</t>
+  </si>
+  <si>
+    <t>74,0%</t>
+  </si>
+  <si>
+    <t>41,46%</t>
+  </si>
+  <si>
+    <t>30,93%</t>
+  </si>
+  <si>
+    <t>72,96%</t>
+  </si>
+  <si>
+    <t>68,33%</t>
+  </si>
+  <si>
+    <t>77,27%</t>
+  </si>
+  <si>
+    <t>47,99%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
+  </si>
+  <si>
+    <t>64,57%</t>
+  </si>
+  <si>
+    <t>58,54%</t>
+  </si>
+  <si>
+    <t>69,07%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>30,23%</t>
+  </si>
+  <si>
+    <t>27,67%</t>
+  </si>
+  <si>
+    <t>33,56%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>83,34%</t>
+  </si>
+  <si>
+    <t>76,6%</t>
+  </si>
+  <si>
+    <t>92,48%</t>
+  </si>
+  <si>
+    <t>69,77%</t>
+  </si>
+  <si>
+    <t>66,44%</t>
+  </si>
+  <si>
+    <t>72,33%</t>
+  </si>
+  <si>
+    <t>77,43%</t>
+  </si>
+  <si>
+    <t>72,9%</t>
+  </si>
+  <si>
+    <t>86,99%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
   </si>
   <si>
     <t>30,91%</t>
   </si>
   <si>
-    <t>51,33%</t>
-  </si>
-  <si>
-    <t>69,26%</t>
-  </si>
-  <si>
-    <t>77,34%</t>
-  </si>
-  <si>
-    <t>54,5%</t>
-  </si>
-  <si>
-    <t>36,67%</t>
-  </si>
-  <si>
-    <t>64,54%</t>
-  </si>
-  <si>
-    <t>48,67%</t>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>44,18%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>30,88%</t>
+  </si>
+  <si>
+    <t>81,64%</t>
+  </si>
+  <si>
+    <t>79,54%</t>
+  </si>
+  <si>
+    <t>85,8%</t>
   </si>
   <si>
     <t>69,09%</t>
   </si>
   <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>30,06%</t>
-  </si>
-  <si>
-    <t>27,42%</t>
-  </si>
-  <si>
-    <t>33,5%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>78,9%</t>
-  </si>
-  <si>
-    <t>75,81%</t>
-  </si>
-  <si>
-    <t>82,91%</t>
-  </si>
-  <si>
-    <t>69,94%</t>
-  </si>
-  <si>
-    <t>66,5%</t>
-  </si>
-  <si>
-    <t>72,58%</t>
-  </si>
-  <si>
-    <t>74,4%</t>
-  </si>
-  <si>
-    <t>72,17%</t>
-  </si>
-  <si>
-    <t>77,36%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>29,87%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>37,59%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>28,62%</t>
-  </si>
-  <si>
-    <t>80,11%</t>
-  </si>
-  <si>
-    <t>78,43%</t>
-  </si>
-  <si>
-    <t>81,78%</t>
-  </si>
-  <si>
-    <t>70,13%</t>
-  </si>
-  <si>
-    <t>62,41%</t>
-  </si>
-  <si>
-    <t>72,79%</t>
-  </si>
-  <si>
-    <t>74,82%</t>
-  </si>
-  <si>
-    <t>71,38%</t>
-  </si>
-  <si>
-    <t>76,47%</t>
+    <t>55,82%</t>
+  </si>
+  <si>
+    <t>73,87%</t>
+  </si>
+  <si>
+    <t>75,19%</t>
+  </si>
+  <si>
+    <t>69,12%</t>
+  </si>
+  <si>
+    <t>78,21%</t>
   </si>
 </sst>
 </file>
@@ -2361,7 +2400,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1C1C158-3FF4-4EC2-9B70-95A08D403705}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F02BBD6D-A6ED-4EC9-B0CC-C99A6A9DBD84}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3752,7 +3791,7 @@
         <v>1463</v>
       </c>
       <c r="N28" s="7">
-        <v>1507676</v>
+        <v>1507677</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>168</v>
@@ -3773,7 +3812,7 @@
         <v>2619</v>
       </c>
       <c r="D29" s="7">
-        <v>2666005</v>
+        <v>2666004</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>171</v>
@@ -3788,7 +3827,7 @@
         <v>2429</v>
       </c>
       <c r="I29" s="7">
-        <v>2482061</v>
+        <v>2482060</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>174</v>
@@ -3824,7 +3863,7 @@
         <v>3214</v>
       </c>
       <c r="D30" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -3839,7 +3878,7 @@
         <v>3297</v>
       </c>
       <c r="I30" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -3854,7 +3893,7 @@
         <v>6511</v>
       </c>
       <c r="N30" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -3892,7 +3931,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E272C847-E209-4C92-8301-2856356B9363}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AA0088E-7341-4EFC-8BD8-85E72A383278}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4010,43 +4049,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>93</v>
+      </c>
+      <c r="D4" s="7">
+        <v>96289</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>182</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>136</v>
+      </c>
+      <c r="I4" s="7">
+        <v>152484</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>229</v>
+      </c>
+      <c r="N4" s="7">
+        <v>248773</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4055,43 +4100,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>189</v>
+      </c>
+      <c r="D5" s="7">
+        <v>198449</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>120</v>
+      </c>
+      <c r="I5" s="7">
+        <v>134761</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>309</v>
+      </c>
+      <c r="N5" s="7">
+        <v>333210</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4100,43 +4151,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>282</v>
+      </c>
+      <c r="D6" s="7">
+        <v>294738</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>182</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>182</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>182</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>256</v>
+      </c>
+      <c r="I6" s="7">
+        <v>287245</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>182</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>182</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>182</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>538</v>
+      </c>
+      <c r="N6" s="7">
+        <v>581983</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>182</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>182</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>182</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4153,13 +4210,13 @@
         <v>76228</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="H7" s="7">
         <v>124</v>
@@ -4168,13 +4225,13 @@
         <v>135072</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="M7" s="7">
         <v>192</v>
@@ -4183,13 +4240,13 @@
         <v>211301</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4204,13 +4261,13 @@
         <v>429299</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="H8" s="7">
         <v>356</v>
@@ -4219,13 +4276,13 @@
         <v>388693</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="M8" s="7">
         <v>760</v>
@@ -4234,13 +4291,13 @@
         <v>817991</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4308,13 +4365,13 @@
         <v>48131</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="H10" s="7">
         <v>77</v>
@@ -4323,13 +4380,13 @@
         <v>80601</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="M10" s="7">
         <v>124</v>
@@ -4338,13 +4395,13 @@
         <v>128732</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4359,13 +4416,13 @@
         <v>275915</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="H11" s="7">
         <v>240</v>
@@ -4374,13 +4431,13 @@
         <v>260419</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="M11" s="7">
         <v>512</v>
@@ -4389,13 +4446,13 @@
         <v>536334</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4457,49 +4514,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>172</v>
+        <v>79</v>
       </c>
       <c r="D13" s="7">
-        <v>179664</v>
+        <v>83375</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>220</v>
+        <v>237</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="H13" s="7">
-        <v>292</v>
+        <v>156</v>
       </c>
       <c r="I13" s="7">
-        <v>316757</v>
+        <v>164274</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
       <c r="M13" s="7">
-        <v>464</v>
+        <v>235</v>
       </c>
       <c r="N13" s="7">
-        <v>496421</v>
+        <v>247648</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>227</v>
+        <v>244</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4508,49 +4565,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>454</v>
+        <v>265</v>
       </c>
       <c r="D14" s="7">
-        <v>489056</v>
+        <v>290607</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>228</v>
+        <v>245</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>229</v>
+        <v>246</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>230</v>
+        <v>247</v>
       </c>
       <c r="H14" s="7">
-        <v>335</v>
+        <v>215</v>
       </c>
       <c r="I14" s="7">
-        <v>359439</v>
+        <v>224677</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>233</v>
+        <v>250</v>
       </c>
       <c r="M14" s="7">
-        <v>789</v>
+        <v>480</v>
       </c>
       <c r="N14" s="7">
-        <v>848495</v>
+        <v>515285</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>234</v>
+        <v>251</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>235</v>
+        <v>252</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>236</v>
+        <v>253</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4559,10 +4616,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>626</v>
+        <v>344</v>
       </c>
       <c r="D15" s="7">
-        <v>668720</v>
+        <v>373982</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4574,10 +4631,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>627</v>
+        <v>371</v>
       </c>
       <c r="I15" s="7">
-        <v>676196</v>
+        <v>388951</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4589,10 +4646,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1253</v>
+        <v>715</v>
       </c>
       <c r="N15" s="7">
-        <v>1344916</v>
+        <v>762933</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4618,13 +4675,13 @@
         <v>27753</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>238</v>
+        <v>255</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>239</v>
+        <v>256</v>
       </c>
       <c r="H16" s="7">
         <v>67</v>
@@ -4633,13 +4690,13 @@
         <v>69487</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>241</v>
+        <v>258</v>
       </c>
       <c r="M16" s="7">
         <v>93</v>
@@ -4648,13 +4705,13 @@
         <v>97239</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>242</v>
+        <v>259</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>162</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4669,13 +4726,13 @@
         <v>184865</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>246</v>
+        <v>263</v>
       </c>
       <c r="H17" s="7">
         <v>145</v>
@@ -4684,13 +4741,13 @@
         <v>150104</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>247</v>
+        <v>264</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>248</v>
+        <v>265</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="M17" s="7">
         <v>315</v>
@@ -4699,10 +4756,10 @@
         <v>334970</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>249</v>
+        <v>266</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>250</v>
+        <v>267</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>171</v>
@@ -4773,13 +4830,13 @@
         <v>45419</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>251</v>
+        <v>268</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>253</v>
+        <v>270</v>
       </c>
       <c r="H19" s="7">
         <v>71</v>
@@ -4788,13 +4845,13 @@
         <v>72110</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>256</v>
+        <v>273</v>
       </c>
       <c r="M19" s="7">
         <v>115</v>
@@ -4803,13 +4860,13 @@
         <v>117528</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>257</v>
+        <v>274</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>259</v>
+        <v>276</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4824,13 +4881,13 @@
         <v>228562</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>261</v>
+        <v>278</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>262</v>
+        <v>279</v>
       </c>
       <c r="H20" s="7">
         <v>198</v>
@@ -4839,13 +4896,13 @@
         <v>207921</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>263</v>
+        <v>280</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>264</v>
+        <v>281</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>265</v>
+        <v>282</v>
       </c>
       <c r="M20" s="7">
         <v>415</v>
@@ -4854,13 +4911,13 @@
         <v>436484</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>266</v>
+        <v>283</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>267</v>
+        <v>284</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>268</v>
+        <v>285</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4928,13 +4985,13 @@
         <v>125647</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>269</v>
+        <v>286</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>270</v>
+        <v>287</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>271</v>
+        <v>288</v>
       </c>
       <c r="H22" s="7">
         <v>149</v>
@@ -4943,13 +5000,13 @@
         <v>165658</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>273</v>
+        <v>290</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>274</v>
+        <v>291</v>
       </c>
       <c r="M22" s="7">
         <v>266</v>
@@ -4958,13 +5015,13 @@
         <v>291306</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>276</v>
+        <v>293</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>277</v>
+        <v>294</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4979,13 +5036,13 @@
         <v>537141</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>278</v>
+        <v>295</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>279</v>
+        <v>296</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>280</v>
+        <v>297</v>
       </c>
       <c r="H23" s="7">
         <v>487</v>
@@ -4994,13 +5051,13 @@
         <v>528195</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>281</v>
+        <v>298</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>282</v>
+        <v>299</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>283</v>
+        <v>300</v>
       </c>
       <c r="M23" s="7">
         <v>988</v>
@@ -5009,13 +5066,13 @@
         <v>1065335</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>284</v>
+        <v>301</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>285</v>
+        <v>302</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>286</v>
+        <v>303</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5083,13 +5140,13 @@
         <v>260736</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>287</v>
+        <v>304</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>289</v>
+        <v>306</v>
       </c>
       <c r="H25" s="7">
         <v>292</v>
@@ -5098,13 +5155,13 @@
         <v>323008</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>291</v>
+        <v>308</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="M25" s="7">
         <v>528</v>
@@ -5113,13 +5170,13 @@
         <v>583744</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>293</v>
+        <v>310</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>294</v>
+        <v>311</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>295</v>
+        <v>312</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5134,13 +5191,13 @@
         <v>518362</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>296</v>
+        <v>313</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>297</v>
+        <v>314</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>298</v>
+        <v>315</v>
       </c>
       <c r="H26" s="7">
         <v>465</v>
@@ -5149,13 +5206,13 @@
         <v>500845</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>299</v>
+        <v>316</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>300</v>
+        <v>317</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>301</v>
+        <v>318</v>
       </c>
       <c r="M26" s="7">
         <v>946</v>
@@ -5164,13 +5221,13 @@
         <v>1019207</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>302</v>
+        <v>319</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>303</v>
+        <v>320</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>304</v>
+        <v>321</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5238,13 +5295,13 @@
         <v>763578</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>305</v>
+        <v>322</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>306</v>
+        <v>323</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>307</v>
+        <v>324</v>
       </c>
       <c r="H28" s="7">
         <v>1072</v>
@@ -5253,13 +5310,13 @@
         <v>1162693</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>308</v>
+        <v>325</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>309</v>
+        <v>326</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>310</v>
+        <v>327</v>
       </c>
       <c r="M28" s="7">
         <v>1782</v>
@@ -5268,13 +5325,13 @@
         <v>1926272</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>311</v>
+        <v>328</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>312</v>
+        <v>329</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>313</v>
+        <v>330</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5289,13 +5346,13 @@
         <v>2663201</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>314</v>
+        <v>331</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>315</v>
+        <v>332</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>316</v>
+        <v>333</v>
       </c>
       <c r="H29" s="7">
         <v>2226</v>
@@ -5304,13 +5361,13 @@
         <v>2395616</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>318</v>
+        <v>335</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>319</v>
+        <v>336</v>
       </c>
       <c r="M29" s="7">
         <v>4725</v>
@@ -5319,13 +5376,13 @@
         <v>5058816</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>321</v>
+        <v>338</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>322</v>
+        <v>339</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5405,7 +5462,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{857AA9A3-3068-4C14-A47D-1EC939F062D4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06D266E0-4D97-42E9-9DE2-F32EE39402C5}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5422,7 +5479,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>323</v>
+        <v>340</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5529,13 +5586,13 @@
         <v>91794</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>324</v>
+        <v>341</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>325</v>
+        <v>342</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>326</v>
+        <v>343</v>
       </c>
       <c r="H4" s="7">
         <v>121</v>
@@ -5544,13 +5601,13 @@
         <v>126271</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>327</v>
+        <v>344</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>328</v>
+        <v>345</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>329</v>
+        <v>346</v>
       </c>
       <c r="M4" s="7">
         <v>207</v>
@@ -5559,13 +5616,13 @@
         <v>218065</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>330</v>
+        <v>347</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>331</v>
+        <v>348</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>332</v>
+        <v>349</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5580,13 +5637,13 @@
         <v>201967</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>333</v>
+        <v>350</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>334</v>
+        <v>351</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>335</v>
+        <v>352</v>
       </c>
       <c r="H5" s="7">
         <v>156</v>
@@ -5595,13 +5652,13 @@
         <v>162432</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>336</v>
+        <v>353</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>337</v>
+        <v>354</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>338</v>
+        <v>355</v>
       </c>
       <c r="M5" s="7">
         <v>336</v>
@@ -5610,13 +5667,13 @@
         <v>364399</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>339</v>
+        <v>356</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>340</v>
+        <v>357</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>341</v>
+        <v>358</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5684,13 +5741,13 @@
         <v>42950</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>342</v>
+        <v>359</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>343</v>
+        <v>360</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>344</v>
+        <v>361</v>
       </c>
       <c r="H7" s="7">
         <v>74</v>
@@ -5699,13 +5756,13 @@
         <v>80632</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>345</v>
+        <v>362</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>346</v>
+        <v>363</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>347</v>
+        <v>364</v>
       </c>
       <c r="M7" s="7">
         <v>117</v>
@@ -5714,13 +5771,13 @@
         <v>123582</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>348</v>
+        <v>365</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>349</v>
+        <v>366</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>350</v>
+        <v>367</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5735,13 +5792,13 @@
         <v>459625</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>351</v>
+        <v>368</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>352</v>
+        <v>369</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>353</v>
+        <v>370</v>
       </c>
       <c r="H8" s="7">
         <v>410</v>
@@ -5750,13 +5807,13 @@
         <v>442452</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>354</v>
+        <v>371</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>355</v>
+        <v>372</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>356</v>
+        <v>373</v>
       </c>
       <c r="M8" s="7">
         <v>842</v>
@@ -5765,13 +5822,13 @@
         <v>902077</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>357</v>
+        <v>374</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>358</v>
+        <v>375</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>359</v>
+        <v>376</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5839,13 +5896,13 @@
         <v>31408</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>360</v>
+        <v>377</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>361</v>
+        <v>378</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>362</v>
+        <v>379</v>
       </c>
       <c r="H10" s="7">
         <v>48</v>
@@ -5854,13 +5911,13 @@
         <v>49724</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>363</v>
+        <v>380</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>364</v>
+        <v>381</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>365</v>
+        <v>382</v>
       </c>
       <c r="M10" s="7">
         <v>82</v>
@@ -5869,13 +5926,13 @@
         <v>81131</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>366</v>
+        <v>383</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>367</v>
+        <v>384</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>368</v>
+        <v>385</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5890,13 +5947,13 @@
         <v>287157</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>369</v>
+        <v>386</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>370</v>
+        <v>387</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>371</v>
+        <v>388</v>
       </c>
       <c r="H11" s="7">
         <v>284</v>
@@ -5905,13 +5962,13 @@
         <v>286585</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>372</v>
+        <v>389</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>374</v>
+        <v>391</v>
       </c>
       <c r="M11" s="7">
         <v>585</v>
@@ -5920,13 +5977,13 @@
         <v>573743</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>375</v>
+        <v>392</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>376</v>
+        <v>393</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>377</v>
+        <v>394</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5994,13 +6051,13 @@
         <v>71943</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>378</v>
+        <v>395</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>380</v>
+        <v>397</v>
       </c>
       <c r="H13" s="7">
         <v>115</v>
@@ -6009,13 +6066,13 @@
         <v>124231</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>381</v>
+        <v>398</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>382</v>
+        <v>399</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>383</v>
+        <v>400</v>
       </c>
       <c r="M13" s="7">
         <v>185</v>
@@ -6024,13 +6081,13 @@
         <v>196174</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>384</v>
+        <v>401</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>168</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>385</v>
+        <v>402</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6045,13 +6102,13 @@
         <v>298021</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>386</v>
+        <v>403</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>387</v>
+        <v>404</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>388</v>
+        <v>405</v>
       </c>
       <c r="H14" s="7">
         <v>243</v>
@@ -6060,13 +6117,13 @@
         <v>263052</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>389</v>
+        <v>406</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>390</v>
+        <v>407</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>391</v>
+        <v>408</v>
       </c>
       <c r="M14" s="7">
         <v>527</v>
@@ -6075,10 +6132,10 @@
         <v>561073</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>392</v>
+        <v>409</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>393</v>
+        <v>410</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>177</v>
@@ -6149,13 +6206,13 @@
         <v>86694</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>394</v>
+        <v>411</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>395</v>
+        <v>412</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>396</v>
+        <v>413</v>
       </c>
       <c r="H16" s="7">
         <v>112</v>
@@ -6164,13 +6221,13 @@
         <v>111198</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>397</v>
+        <v>414</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>398</v>
+        <v>415</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>399</v>
+        <v>416</v>
       </c>
       <c r="M16" s="7">
         <v>200</v>
@@ -6179,13 +6236,13 @@
         <v>197892</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>400</v>
+        <v>417</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>401</v>
+        <v>418</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>402</v>
+        <v>419</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6200,13 +6257,13 @@
         <v>124527</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>403</v>
+        <v>420</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>404</v>
+        <v>421</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>405</v>
+        <v>422</v>
       </c>
       <c r="H17" s="7">
         <v>111</v>
@@ -6215,13 +6272,13 @@
         <v>107389</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>406</v>
+        <v>423</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>407</v>
+        <v>424</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>408</v>
+        <v>425</v>
       </c>
       <c r="M17" s="7">
         <v>235</v>
@@ -6230,13 +6287,13 @@
         <v>231916</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>409</v>
+        <v>426</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>410</v>
+        <v>427</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>411</v>
+        <v>428</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6304,13 +6361,13 @@
         <v>31744</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>412</v>
+        <v>429</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>413</v>
+        <v>430</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>414</v>
+        <v>431</v>
       </c>
       <c r="H19" s="7">
         <v>58</v>
@@ -6319,13 +6376,13 @@
         <v>63850</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>415</v>
+        <v>432</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>416</v>
+        <v>433</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>417</v>
+        <v>434</v>
       </c>
       <c r="M19" s="7">
         <v>90</v>
@@ -6334,13 +6391,13 @@
         <v>95594</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>418</v>
+        <v>435</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>419</v>
+        <v>436</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>420</v>
+        <v>437</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6355,13 +6412,13 @@
         <v>231379</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>421</v>
+        <v>438</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>422</v>
+        <v>439</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>423</v>
+        <v>440</v>
       </c>
       <c r="H20" s="7">
         <v>205</v>
@@ -6370,13 +6427,13 @@
         <v>209265</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>424</v>
+        <v>441</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>425</v>
+        <v>442</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>426</v>
+        <v>443</v>
       </c>
       <c r="M20" s="7">
         <v>432</v>
@@ -6385,13 +6442,13 @@
         <v>440644</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>427</v>
+        <v>444</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>428</v>
+        <v>445</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>429</v>
+        <v>446</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6459,13 +6516,13 @@
         <v>135695</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>430</v>
+        <v>447</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>431</v>
+        <v>448</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>432</v>
+        <v>449</v>
       </c>
       <c r="H22" s="7">
         <v>186</v>
@@ -6477,10 +6534,10 @@
         <v>144</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>433</v>
+        <v>450</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>434</v>
+        <v>451</v>
       </c>
       <c r="M22" s="7">
         <v>302</v>
@@ -6489,13 +6546,13 @@
         <v>341657</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>435</v>
+        <v>452</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>436</v>
+        <v>453</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>437</v>
+        <v>454</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6510,13 +6567,13 @@
         <v>520863</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>438</v>
+        <v>455</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>439</v>
+        <v>456</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>440</v>
+        <v>457</v>
       </c>
       <c r="H23" s="7">
         <v>460</v>
@@ -6528,10 +6585,10 @@
         <v>153</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>441</v>
+        <v>458</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>442</v>
+        <v>459</v>
       </c>
       <c r="M23" s="7">
         <v>924</v>
@@ -6540,13 +6597,13 @@
         <v>1006195</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>443</v>
+        <v>460</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>444</v>
+        <v>461</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>445</v>
+        <v>462</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6614,13 +6671,13 @@
         <v>147995</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>365</v>
+        <v>382</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>446</v>
+        <v>463</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>447</v>
+        <v>464</v>
       </c>
       <c r="H25" s="7">
         <v>165</v>
@@ -6632,10 +6689,10 @@
         <v>168</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>448</v>
+        <v>465</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>449</v>
+        <v>466</v>
       </c>
       <c r="M25" s="7">
         <v>309</v>
@@ -6644,13 +6701,13 @@
         <v>335143</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>450</v>
+        <v>467</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>451</v>
+        <v>468</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>452</v>
+        <v>469</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6665,13 +6722,13 @@
         <v>630588</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>453</v>
+        <v>470</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>454</v>
+        <v>471</v>
       </c>
       <c r="H26" s="7">
         <v>590</v>
@@ -6683,10 +6740,10 @@
         <v>177</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>455</v>
+        <v>472</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>456</v>
+        <v>473</v>
       </c>
       <c r="M26" s="7">
         <v>1196</v>
@@ -6695,13 +6752,13 @@
         <v>1269607</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>457</v>
+        <v>474</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>458</v>
+        <v>475</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>459</v>
+        <v>476</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6769,13 +6826,13 @@
         <v>640223</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>460</v>
+        <v>477</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>461</v>
+        <v>478</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>462</v>
+        <v>479</v>
       </c>
       <c r="H28" s="7">
         <v>879</v>
@@ -6784,13 +6841,13 @@
         <v>949015</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>463</v>
+        <v>480</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>464</v>
+        <v>481</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>465</v>
+        <v>482</v>
       </c>
       <c r="M28" s="7">
         <v>1492</v>
@@ -6799,13 +6856,13 @@
         <v>1589239</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>466</v>
+        <v>483</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>467</v>
+        <v>484</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>468</v>
+        <v>485</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6820,13 +6877,13 @@
         <v>2754127</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>469</v>
+        <v>486</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>470</v>
+        <v>487</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>471</v>
+        <v>488</v>
       </c>
       <c r="H29" s="7">
         <v>2459</v>
@@ -6835,13 +6892,13 @@
         <v>2595527</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>472</v>
+        <v>489</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>473</v>
+        <v>490</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>474</v>
+        <v>491</v>
       </c>
       <c r="M29" s="7">
         <v>5077</v>
@@ -6850,13 +6907,13 @@
         <v>5349653</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>475</v>
+        <v>492</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>476</v>
+        <v>493</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>477</v>
+        <v>494</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6936,7 +6993,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F9CDB4D-FD6C-4D24-BE9D-E836552C16F9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36B54B39-F343-4E7C-832A-5D357EB75E4B}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6953,7 +7010,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>478</v>
+        <v>495</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7057,46 +7114,46 @@
         <v>23</v>
       </c>
       <c r="D4" s="7">
-        <v>18345</v>
+        <v>20587</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>479</v>
+        <v>496</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>480</v>
+        <v>497</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>481</v>
+        <v>498</v>
       </c>
       <c r="H4" s="7">
         <v>41</v>
       </c>
       <c r="I4" s="7">
-        <v>19962</v>
+        <v>21029</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>482</v>
+        <v>499</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>483</v>
+        <v>500</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>484</v>
+        <v>501</v>
       </c>
       <c r="M4" s="7">
         <v>64</v>
       </c>
       <c r="N4" s="7">
-        <v>38307</v>
+        <v>41616</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>485</v>
+        <v>502</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>486</v>
+        <v>503</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>487</v>
+        <v>504</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7108,46 +7165,46 @@
         <v>308</v>
       </c>
       <c r="D5" s="7">
-        <v>241953</v>
+        <v>290856</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>488</v>
+        <v>505</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>489</v>
+        <v>506</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>490</v>
+        <v>507</v>
       </c>
       <c r="H5" s="7">
         <v>497</v>
       </c>
       <c r="I5" s="7">
-        <v>251441</v>
+        <v>268606</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>491</v>
+        <v>508</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>492</v>
+        <v>509</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>493</v>
+        <v>510</v>
       </c>
       <c r="M5" s="7">
         <v>805</v>
       </c>
       <c r="N5" s="7">
-        <v>493393</v>
+        <v>559461</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>494</v>
+        <v>511</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>495</v>
+        <v>512</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>496</v>
+        <v>513</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7159,7 +7216,7 @@
         <v>331</v>
       </c>
       <c r="D6" s="7">
-        <v>260298</v>
+        <v>311443</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -7174,7 +7231,7 @@
         <v>538</v>
       </c>
       <c r="I6" s="7">
-        <v>271403</v>
+        <v>289635</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -7189,7 +7246,7 @@
         <v>869</v>
       </c>
       <c r="N6" s="7">
-        <v>531700</v>
+        <v>601077</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -7212,46 +7269,46 @@
         <v>68</v>
       </c>
       <c r="D7" s="7">
-        <v>82784</v>
+        <v>80791</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>497</v>
+        <v>514</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>498</v>
+        <v>201</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>499</v>
+        <v>515</v>
       </c>
       <c r="H7" s="7">
         <v>182</v>
       </c>
       <c r="I7" s="7">
-        <v>134198</v>
+        <v>124163</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>500</v>
+        <v>516</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>501</v>
+        <v>517</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>502</v>
+        <v>518</v>
       </c>
       <c r="M7" s="7">
         <v>250</v>
       </c>
       <c r="N7" s="7">
-        <v>216982</v>
+        <v>204953</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>503</v>
+        <v>519</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>504</v>
+        <v>520</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>505</v>
+        <v>521</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7263,46 +7320,46 @@
         <v>313</v>
       </c>
       <c r="D8" s="7">
-        <v>435586</v>
+        <v>436728</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>506</v>
+        <v>522</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>507</v>
+        <v>523</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>508</v>
+        <v>211</v>
       </c>
       <c r="H8" s="7">
         <v>533</v>
       </c>
       <c r="I8" s="7">
-        <v>418829</v>
+        <v>389414</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>509</v>
+        <v>524</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>510</v>
+        <v>525</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>511</v>
+        <v>526</v>
       </c>
       <c r="M8" s="7">
         <v>846</v>
       </c>
       <c r="N8" s="7">
-        <v>854415</v>
+        <v>826143</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>512</v>
+        <v>527</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>513</v>
+        <v>528</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>514</v>
+        <v>529</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7314,7 +7371,7 @@
         <v>381</v>
       </c>
       <c r="D9" s="7">
-        <v>518370</v>
+        <v>517519</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -7329,7 +7386,7 @@
         <v>715</v>
       </c>
       <c r="I9" s="7">
-        <v>553027</v>
+        <v>513577</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -7344,7 +7401,7 @@
         <v>1096</v>
       </c>
       <c r="N9" s="7">
-        <v>1071397</v>
+        <v>1031096</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -7367,46 +7424,46 @@
         <v>54</v>
       </c>
       <c r="D10" s="7">
-        <v>42404</v>
+        <v>41010</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>515</v>
+        <v>530</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>516</v>
+        <v>531</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>517</v>
+        <v>532</v>
       </c>
       <c r="H10" s="7">
         <v>116</v>
       </c>
       <c r="I10" s="7">
-        <v>73613</v>
+        <v>68147</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>518</v>
+        <v>533</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>519</v>
+        <v>534</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>520</v>
+        <v>535</v>
       </c>
       <c r="M10" s="7">
         <v>170</v>
       </c>
       <c r="N10" s="7">
-        <v>116017</v>
+        <v>109157</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>521</v>
+        <v>268</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>522</v>
+        <v>536</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>523</v>
+        <v>537</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7418,46 +7475,46 @@
         <v>304</v>
       </c>
       <c r="D11" s="7">
-        <v>277827</v>
+        <v>273067</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>524</v>
+        <v>538</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>525</v>
+        <v>539</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>526</v>
+        <v>540</v>
       </c>
       <c r="H11" s="7">
         <v>413</v>
       </c>
       <c r="I11" s="7">
-        <v>294261</v>
+        <v>275958</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>527</v>
+        <v>541</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>528</v>
+        <v>542</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>529</v>
+        <v>543</v>
       </c>
       <c r="M11" s="7">
         <v>717</v>
       </c>
       <c r="N11" s="7">
-        <v>572088</v>
+        <v>549025</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>530</v>
+        <v>277</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>531</v>
+        <v>544</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>532</v>
+        <v>545</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7469,7 +7526,7 @@
         <v>358</v>
       </c>
       <c r="D12" s="7">
-        <v>320231</v>
+        <v>314077</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -7484,7 +7541,7 @@
         <v>529</v>
       </c>
       <c r="I12" s="7">
-        <v>367874</v>
+        <v>344105</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -7499,7 +7556,7 @@
         <v>887</v>
       </c>
       <c r="N12" s="7">
-        <v>688105</v>
+        <v>658182</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -7522,46 +7579,46 @@
         <v>44</v>
       </c>
       <c r="D13" s="7">
-        <v>39907</v>
+        <v>38063</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>533</v>
+        <v>546</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>534</v>
+        <v>547</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>535</v>
+        <v>548</v>
       </c>
       <c r="H13" s="7">
         <v>129</v>
       </c>
       <c r="I13" s="7">
-        <v>87165</v>
+        <v>81065</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>536</v>
+        <v>549</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>537</v>
+        <v>550</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>538</v>
+        <v>551</v>
       </c>
       <c r="M13" s="7">
         <v>173</v>
       </c>
       <c r="N13" s="7">
-        <v>127072</v>
+        <v>119129</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>539</v>
+        <v>552</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>540</v>
+        <v>553</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>541</v>
+        <v>554</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7573,46 +7630,46 @@
         <v>242</v>
       </c>
       <c r="D14" s="7">
-        <v>275676</v>
+        <v>268121</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>542</v>
+        <v>555</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>543</v>
+        <v>556</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>544</v>
+        <v>557</v>
       </c>
       <c r="H14" s="7">
         <v>459</v>
       </c>
       <c r="I14" s="7">
-        <v>335802</v>
+        <v>389414</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>545</v>
+        <v>558</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>546</v>
+        <v>559</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>547</v>
+        <v>560</v>
       </c>
       <c r="M14" s="7">
         <v>701</v>
       </c>
       <c r="N14" s="7">
-        <v>611478</v>
+        <v>657534</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>548</v>
+        <v>561</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>549</v>
+        <v>562</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>550</v>
+        <v>563</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7624,7 +7681,7 @@
         <v>286</v>
       </c>
       <c r="D15" s="7">
-        <v>315583</v>
+        <v>306184</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -7639,7 +7696,7 @@
         <v>588</v>
       </c>
       <c r="I15" s="7">
-        <v>422967</v>
+        <v>470479</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -7654,7 +7711,7 @@
         <v>874</v>
       </c>
       <c r="N15" s="7">
-        <v>738550</v>
+        <v>776663</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -7677,46 +7734,46 @@
         <v>144</v>
       </c>
       <c r="D16" s="7">
-        <v>94628</v>
+        <v>86316</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>551</v>
+        <v>564</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>552</v>
+        <v>565</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>553</v>
+        <v>566</v>
       </c>
       <c r="H16" s="7">
         <v>303</v>
       </c>
       <c r="I16" s="7">
-        <v>136596</v>
+        <v>123969</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>554</v>
+        <v>567</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>555</v>
+        <v>568</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>556</v>
+        <v>569</v>
       </c>
       <c r="M16" s="7">
         <v>447</v>
       </c>
       <c r="N16" s="7">
-        <v>231225</v>
+        <v>210285</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>557</v>
+        <v>570</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>558</v>
+        <v>571</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>559</v>
+        <v>572</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7728,46 +7785,46 @@
         <v>134</v>
       </c>
       <c r="D17" s="7">
-        <v>101542</v>
+        <v>91923</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>560</v>
+        <v>573</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>561</v>
+        <v>574</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
       <c r="H17" s="7">
         <v>184</v>
       </c>
       <c r="I17" s="7">
-        <v>93090</v>
+        <v>82678</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>563</v>
+        <v>576</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>564</v>
+        <v>577</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>565</v>
+        <v>578</v>
       </c>
       <c r="M17" s="7">
         <v>318</v>
       </c>
       <c r="N17" s="7">
-        <v>194631</v>
+        <v>174601</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>566</v>
+        <v>579</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>567</v>
+        <v>580</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>568</v>
+        <v>581</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7779,7 +7836,7 @@
         <v>278</v>
       </c>
       <c r="D18" s="7">
-        <v>196170</v>
+        <v>178239</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -7794,7 +7851,7 @@
         <v>487</v>
       </c>
       <c r="I18" s="7">
-        <v>229686</v>
+        <v>206647</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -7809,7 +7866,7 @@
         <v>765</v>
       </c>
       <c r="N18" s="7">
-        <v>425856</v>
+        <v>384886</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -7832,46 +7889,46 @@
         <v>68</v>
       </c>
       <c r="D19" s="7">
-        <v>45258</v>
+        <v>43392</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>569</v>
+        <v>582</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>570</v>
+        <v>583</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>571</v>
+        <v>584</v>
       </c>
       <c r="H19" s="7">
         <v>112</v>
       </c>
       <c r="I19" s="7">
-        <v>54984</v>
+        <v>51215</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>572</v>
+        <v>585</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>573</v>
+        <v>586</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>574</v>
+        <v>587</v>
       </c>
       <c r="M19" s="7">
         <v>180</v>
       </c>
       <c r="N19" s="7">
-        <v>100242</v>
+        <v>94607</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>575</v>
+        <v>588</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>576</v>
+        <v>552</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>577</v>
+        <v>589</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7883,46 +7940,46 @@
         <v>302</v>
       </c>
       <c r="D20" s="7">
-        <v>231469</v>
+        <v>225772</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>579</v>
+        <v>591</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>580</v>
+        <v>592</v>
       </c>
       <c r="H20" s="7">
         <v>348</v>
       </c>
       <c r="I20" s="7">
-        <v>220638</v>
+        <v>205841</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>581</v>
+        <v>593</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="M20" s="7">
         <v>650</v>
       </c>
       <c r="N20" s="7">
-        <v>452107</v>
+        <v>431613</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>584</v>
+        <v>596</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>585</v>
+        <v>597</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>586</v>
+        <v>561</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7934,7 +7991,7 @@
         <v>370</v>
       </c>
       <c r="D21" s="7">
-        <v>276727</v>
+        <v>269164</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -7949,7 +8006,7 @@
         <v>460</v>
       </c>
       <c r="I21" s="7">
-        <v>275622</v>
+        <v>257056</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -7964,7 +8021,7 @@
         <v>830</v>
       </c>
       <c r="N21" s="7">
-        <v>552349</v>
+        <v>526220</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -7987,46 +8044,46 @@
         <v>155</v>
       </c>
       <c r="D22" s="7">
-        <v>165782</v>
+        <v>167644</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>32</v>
+        <v>598</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>588</v>
+        <v>600</v>
       </c>
       <c r="H22" s="7">
         <v>350</v>
       </c>
       <c r="I22" s="7">
-        <v>364763</v>
+        <v>440416</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>589</v>
+        <v>601</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>590</v>
+        <v>602</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>591</v>
+        <v>603</v>
       </c>
       <c r="M22" s="7">
         <v>505</v>
       </c>
       <c r="N22" s="7">
-        <v>530545</v>
+        <v>608060</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>383</v>
+        <v>604</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>592</v>
+        <v>605</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>593</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8038,46 +8095,46 @@
         <v>439</v>
       </c>
       <c r="D23" s="7">
-        <v>457365</v>
+        <v>452257</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>41</v>
+        <v>606</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>594</v>
+        <v>607</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>595</v>
+        <v>608</v>
       </c>
       <c r="H23" s="7">
         <v>606</v>
       </c>
       <c r="I23" s="7">
-        <v>436843</v>
+        <v>406448</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>596</v>
+        <v>609</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>597</v>
+        <v>610</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>598</v>
+        <v>611</v>
       </c>
       <c r="M23" s="7">
         <v>1045</v>
       </c>
       <c r="N23" s="7">
-        <v>894208</v>
+        <v>858705</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>390</v>
+        <v>612</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>599</v>
+        <v>91</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>600</v>
+        <v>613</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8089,7 +8146,7 @@
         <v>594</v>
       </c>
       <c r="D24" s="7">
-        <v>623147</v>
+        <v>619901</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -8104,7 +8161,7 @@
         <v>956</v>
       </c>
       <c r="I24" s="7">
-        <v>801606</v>
+        <v>846864</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -8119,7 +8176,7 @@
         <v>1550</v>
       </c>
       <c r="N24" s="7">
-        <v>1424753</v>
+        <v>1466765</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -8142,46 +8199,46 @@
         <v>196</v>
       </c>
       <c r="D25" s="7">
-        <v>180982</v>
+        <v>154440</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>601</v>
+        <v>614</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>602</v>
+        <v>615</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>603</v>
+        <v>616</v>
       </c>
       <c r="H25" s="7">
         <v>347</v>
       </c>
       <c r="I25" s="7">
-        <v>260109</v>
+        <v>216219</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>604</v>
+        <v>617</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>605</v>
+        <v>618</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>606</v>
+        <v>619</v>
       </c>
       <c r="M25" s="7">
         <v>543</v>
       </c>
       <c r="N25" s="7">
-        <v>441092</v>
+        <v>370659</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>607</v>
+        <v>620</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>608</v>
+        <v>621</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>609</v>
+        <v>622</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8193,46 +8250,46 @@
         <v>564</v>
       </c>
       <c r="D26" s="7">
-        <v>676655</v>
+        <v>772744</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>610</v>
+        <v>623</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>611</v>
+        <v>624</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>612</v>
+        <v>625</v>
       </c>
       <c r="H26" s="7">
         <v>711</v>
       </c>
       <c r="I26" s="7">
-        <v>605277</v>
+        <v>499022</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>613</v>
+        <v>626</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>614</v>
+        <v>627</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>615</v>
+        <v>628</v>
       </c>
       <c r="M26" s="7">
         <v>1275</v>
       </c>
       <c r="N26" s="7">
-        <v>1281931</v>
+        <v>1271766</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>616</v>
+        <v>629</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>617</v>
+        <v>630</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>618</v>
+        <v>631</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8244,7 +8301,7 @@
         <v>760</v>
       </c>
       <c r="D27" s="7">
-        <v>857637</v>
+        <v>927184</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>30</v>
@@ -8259,7 +8316,7 @@
         <v>1058</v>
       </c>
       <c r="I27" s="7">
-        <v>865386</v>
+        <v>715241</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>30</v>
@@ -8274,7 +8331,7 @@
         <v>1818</v>
       </c>
       <c r="N27" s="7">
-        <v>1723023</v>
+        <v>1642425</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>30</v>
@@ -8297,46 +8354,46 @@
         <v>752</v>
       </c>
       <c r="D28" s="7">
-        <v>670090</v>
+        <v>632243</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>619</v>
+        <v>632</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>620</v>
+        <v>633</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>621</v>
+        <v>634</v>
       </c>
       <c r="H28" s="7">
         <v>1580</v>
       </c>
       <c r="I28" s="7">
-        <v>1131391</v>
+        <v>1126222</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>622</v>
+        <v>635</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>623</v>
+        <v>636</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>624</v>
+        <v>637</v>
       </c>
       <c r="M28" s="7">
         <v>2332</v>
       </c>
       <c r="N28" s="7">
-        <v>1801481</v>
+        <v>1758466</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>625</v>
+        <v>638</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>626</v>
+        <v>639</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>627</v>
+        <v>640</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8348,46 +8405,46 @@
         <v>2606</v>
       </c>
       <c r="D29" s="7">
-        <v>2698072</v>
+        <v>2811468</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>628</v>
+        <v>641</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>629</v>
+        <v>642</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>630</v>
+        <v>643</v>
       </c>
       <c r="H29" s="7">
         <v>3751</v>
       </c>
       <c r="I29" s="7">
-        <v>2656181</v>
+        <v>2517381</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>631</v>
+        <v>644</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>632</v>
+        <v>645</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>633</v>
+        <v>646</v>
       </c>
       <c r="M29" s="7">
         <v>6357</v>
       </c>
       <c r="N29" s="7">
-        <v>5354253</v>
+        <v>5328848</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>634</v>
+        <v>647</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>635</v>
+        <v>648</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>636</v>
+        <v>649</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8399,7 +8456,7 @@
         <v>3358</v>
       </c>
       <c r="D30" s="7">
-        <v>3368162</v>
+        <v>3443711</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -8414,7 +8471,7 @@
         <v>5331</v>
       </c>
       <c r="I30" s="7">
-        <v>3787572</v>
+        <v>3643603</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -8429,7 +8486,7 @@
         <v>8689</v>
       </c>
       <c r="N30" s="7">
-        <v>7155734</v>
+        <v>7087314</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
